--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
@@ -252,7 +252,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>頓⽤回数を表現する拡張</t>
+    <t>頓用回数を表現する拡張</t>
   </si>
   <si>
     <t>*</t>
